--- a/natmiOut/OldD4/LR-pairs_lrc2p/Psen1-Notch3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Psen1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.2921922481688</v>
+        <v>14.052091</v>
       </c>
       <c r="H2">
-        <v>13.2921922481688</v>
+        <v>42.156273</v>
       </c>
       <c r="I2">
-        <v>0.1193951956228531</v>
+        <v>0.118199646824064</v>
       </c>
       <c r="J2">
-        <v>0.1193951956228531</v>
+        <v>0.1227480314487644</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.70468916187764</v>
+        <v>8.819868333333334</v>
       </c>
       <c r="N2">
-        <v>6.70468916187764</v>
+        <v>26.459605</v>
       </c>
       <c r="O2">
-        <v>0.0466399255592423</v>
+        <v>0.06009452733181694</v>
       </c>
       <c r="P2">
-        <v>0.0466399255592423</v>
+        <v>0.08592393201160566</v>
       </c>
       <c r="Q2">
-        <v>89.12001730389133</v>
+        <v>123.9375924280183</v>
       </c>
       <c r="R2">
-        <v>89.12001730389133</v>
+        <v>1115.438331852165</v>
       </c>
       <c r="S2">
-        <v>0.005568583035981039</v>
+        <v>0.007103151906679825</v>
       </c>
       <c r="T2">
-        <v>0.005568583035981039</v>
+        <v>0.01054699350876207</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.2921922481688</v>
+        <v>14.052091</v>
       </c>
       <c r="H3">
-        <v>13.2921922481688</v>
+        <v>42.156273</v>
       </c>
       <c r="I3">
-        <v>0.1193951956228531</v>
+        <v>0.118199646824064</v>
       </c>
       <c r="J3">
-        <v>0.1193951956228531</v>
+        <v>0.1227480314487644</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.10002533935425</v>
+        <v>5.485874</v>
       </c>
       <c r="N3">
-        <v>5.10002533935425</v>
+        <v>16.457622</v>
       </c>
       <c r="O3">
-        <v>0.0354773795525396</v>
+        <v>0.03737822295894862</v>
       </c>
       <c r="P3">
-        <v>0.0354773795525396</v>
+        <v>0.05344386636915803</v>
       </c>
       <c r="Q3">
-        <v>67.79051728122901</v>
+        <v>77.088000662534</v>
       </c>
       <c r="R3">
-        <v>67.79051728122901</v>
+        <v>693.792005962806</v>
       </c>
       <c r="S3">
-        <v>0.004235828671861673</v>
+        <v>0.004418092752658848</v>
       </c>
       <c r="T3">
-        <v>0.004235828671861673</v>
+        <v>0.006560129389824975</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.2921922481688</v>
+        <v>14.052091</v>
       </c>
       <c r="H4">
-        <v>13.2921922481688</v>
+        <v>42.156273</v>
       </c>
       <c r="I4">
-        <v>0.1193951956228531</v>
+        <v>0.118199646824064</v>
       </c>
       <c r="J4">
-        <v>0.1193951956228531</v>
+        <v>0.1227480314487644</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>131.949570727232</v>
+        <v>0.06916233333333334</v>
       </c>
       <c r="N4">
-        <v>131.949570727232</v>
+        <v>0.207487</v>
       </c>
       <c r="O4">
-        <v>0.9178826948882181</v>
+        <v>0.0004712403375823903</v>
       </c>
       <c r="P4">
-        <v>0.9178826948882181</v>
+        <v>0.0006737855263255828</v>
       </c>
       <c r="Q4">
-        <v>1753.899061169714</v>
+        <v>0.9718754017723333</v>
       </c>
       <c r="R4">
-        <v>1753.899061169714</v>
+        <v>8.746878615950999</v>
       </c>
       <c r="S4">
-        <v>0.1095907839150103</v>
+        <v>5.570044147149124E-05</v>
       </c>
       <c r="T4">
-        <v>0.1095907839150103</v>
+        <v>8.270584697513495E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.0544041190686</v>
+        <v>14.052091</v>
       </c>
       <c r="H5">
-        <v>22.0544041190686</v>
+        <v>42.156273</v>
       </c>
       <c r="I5">
-        <v>0.1981004972678163</v>
+        <v>0.118199646824064</v>
       </c>
       <c r="J5">
-        <v>0.1981004972678163</v>
+        <v>0.1227480314487644</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>6.70468916187764</v>
+        <v>0.03413666666666667</v>
       </c>
       <c r="N5">
-        <v>6.70468916187764</v>
+        <v>0.10241</v>
       </c>
       <c r="O5">
-        <v>0.0466399255592423</v>
+        <v>0.0002325915501781441</v>
       </c>
       <c r="P5">
-        <v>0.0466399255592423</v>
+        <v>0.0003325624051193711</v>
       </c>
       <c r="Q5">
-        <v>147.8679242687888</v>
+        <v>0.4796915464366667</v>
       </c>
       <c r="R5">
-        <v>147.8679242687888</v>
+        <v>4.31722391793</v>
       </c>
       <c r="S5">
-        <v>0.009239392445819831</v>
+        <v>2.74922390853182E-05</v>
       </c>
       <c r="T5">
-        <v>0.009239392445819831</v>
+        <v>4.08213805622693E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.0544041190686</v>
+        <v>14.052091</v>
       </c>
       <c r="H6">
-        <v>22.0544041190686</v>
+        <v>42.156273</v>
       </c>
       <c r="I6">
-        <v>0.1981004972678163</v>
+        <v>0.118199646824064</v>
       </c>
       <c r="J6">
-        <v>0.1981004972678163</v>
+        <v>0.1227480314487644</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.10002533935425</v>
+        <v>132.35754</v>
       </c>
       <c r="N6">
-        <v>5.10002533935425</v>
+        <v>264.71508</v>
       </c>
       <c r="O6">
-        <v>0.0354773795525396</v>
+        <v>0.9018234178214739</v>
       </c>
       <c r="P6">
-        <v>0.0354773795525396</v>
+        <v>0.8596258536877913</v>
       </c>
       <c r="Q6">
-        <v>112.4780198516086</v>
+        <v>1859.90019661614</v>
       </c>
       <c r="R6">
-        <v>112.4780198516086</v>
+        <v>11159.40117969684</v>
       </c>
       <c r="S6">
-        <v>0.007028086531117151</v>
+        <v>0.1065952094841685</v>
       </c>
       <c r="T6">
-        <v>0.007028086531117151</v>
+        <v>0.10551738132264</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.0544041190686</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H7">
-        <v>22.0544041190686</v>
+        <v>71.222432</v>
       </c>
       <c r="I7">
-        <v>0.1981004972678163</v>
+        <v>0.1996966455822818</v>
       </c>
       <c r="J7">
-        <v>0.1981004972678163</v>
+        <v>0.2073810776155066</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>131.949570727232</v>
+        <v>8.819868333333334</v>
       </c>
       <c r="N7">
-        <v>131.949570727232</v>
+        <v>26.459605</v>
       </c>
       <c r="O7">
-        <v>0.9178826948882181</v>
+        <v>0.06009452733181694</v>
       </c>
       <c r="P7">
-        <v>0.9178826948882181</v>
+        <v>0.08592393201160566</v>
       </c>
       <c r="Q7">
-        <v>2910.069156155999</v>
+        <v>209.3908242065955</v>
       </c>
       <c r="R7">
-        <v>2910.069156155999</v>
+        <v>1884.51741785936</v>
       </c>
       <c r="S7">
-        <v>0.1818330182908793</v>
+        <v>0.01200067552601659</v>
       </c>
       <c r="T7">
-        <v>0.1818330182908793</v>
+        <v>0.01781899761352831</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.2846332028425</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H8">
-        <v>29.2846332028425</v>
+        <v>71.222432</v>
       </c>
       <c r="I8">
-        <v>0.2630449849593897</v>
+        <v>0.1996966455822818</v>
       </c>
       <c r="J8">
-        <v>0.2630449849593897</v>
+        <v>0.2073810776155066</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.70468916187764</v>
+        <v>5.485874</v>
       </c>
       <c r="N8">
-        <v>6.70468916187764</v>
+        <v>16.457622</v>
       </c>
       <c r="O8">
-        <v>0.0466399255592423</v>
+        <v>0.03737822295894862</v>
       </c>
       <c r="P8">
-        <v>0.0466399255592423</v>
+        <v>0.05344386636915803</v>
       </c>
       <c r="Q8">
-        <v>196.3443628446602</v>
+        <v>130.2390959751893</v>
       </c>
       <c r="R8">
-        <v>196.3443628446602</v>
+        <v>1172.151863776704</v>
       </c>
       <c r="S8">
-        <v>0.01226839851723794</v>
+        <v>0.007464305742728671</v>
       </c>
       <c r="T8">
-        <v>0.01226839851723794</v>
+        <v>0.01108324659957513</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.2846332028425</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H9">
-        <v>29.2846332028425</v>
+        <v>71.222432</v>
       </c>
       <c r="I9">
-        <v>0.2630449849593897</v>
+        <v>0.1996966455822818</v>
       </c>
       <c r="J9">
-        <v>0.2630449849593897</v>
+        <v>0.2073810776155066</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>5.10002533935425</v>
+        <v>0.06916233333333334</v>
       </c>
       <c r="N9">
-        <v>5.10002533935425</v>
+        <v>0.207487</v>
       </c>
       <c r="O9">
-        <v>0.0354773795525396</v>
+        <v>0.0004712403375823903</v>
       </c>
       <c r="P9">
-        <v>0.0354773795525396</v>
+        <v>0.0006737855263255828</v>
       </c>
       <c r="Q9">
-        <v>149.3523713881916</v>
+        <v>1.641969860931556</v>
       </c>
       <c r="R9">
-        <v>149.3523713881916</v>
+        <v>14.777728748384</v>
       </c>
       <c r="S9">
-        <v>0.009332146770796338</v>
+        <v>9.410511467826543E-05</v>
       </c>
       <c r="T9">
-        <v>0.009332146770796338</v>
+        <v>0.0001397303685311307</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.2846332028425</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H10">
-        <v>29.2846332028425</v>
+        <v>71.222432</v>
       </c>
       <c r="I10">
-        <v>0.2630449849593897</v>
+        <v>0.1996966455822818</v>
       </c>
       <c r="J10">
-        <v>0.2630449849593897</v>
+        <v>0.2073810776155066</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>131.949570727232</v>
+        <v>0.03413666666666667</v>
       </c>
       <c r="N10">
-        <v>131.949570727232</v>
+        <v>0.10241</v>
       </c>
       <c r="O10">
-        <v>0.9178826948882181</v>
+        <v>0.0002325915501781441</v>
       </c>
       <c r="P10">
-        <v>0.9178826948882181</v>
+        <v>0.0003325624051193711</v>
       </c>
       <c r="Q10">
-        <v>3864.094780019513</v>
+        <v>0.8104321401244444</v>
       </c>
       <c r="R10">
-        <v>3864.094780019513</v>
+        <v>7.293889261119999</v>
       </c>
       <c r="S10">
-        <v>0.2414444396713554</v>
+        <v>4.644775236135836E-05</v>
       </c>
       <c r="T10">
-        <v>0.2414444396713554</v>
+        <v>6.896714994805985E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.1994417458299</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H11">
-        <v>34.1994417458299</v>
+        <v>71.222432</v>
       </c>
       <c r="I11">
-        <v>0.3071915423129888</v>
+        <v>0.1996966455822818</v>
       </c>
       <c r="J11">
-        <v>0.3071915423129888</v>
+        <v>0.2073810776155066</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.70468916187764</v>
+        <v>132.35754</v>
       </c>
       <c r="N11">
-        <v>6.70468916187764</v>
+        <v>264.71508</v>
       </c>
       <c r="O11">
-        <v>0.0466399255592423</v>
+        <v>0.9018234178214739</v>
       </c>
       <c r="P11">
-        <v>0.0466399255592423</v>
+        <v>0.8596258536877913</v>
       </c>
       <c r="Q11">
-        <v>229.2966264155315</v>
+        <v>3142.27529744576</v>
       </c>
       <c r="R11">
-        <v>229.2966264155315</v>
+        <v>18853.65178467456</v>
       </c>
       <c r="S11">
-        <v>0.01432739066590663</v>
+        <v>0.1800911114464969</v>
       </c>
       <c r="T11">
-        <v>0.01432739066590663</v>
+        <v>0.178270135883924</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.1994417458299</v>
+        <v>32.95966666666666</v>
       </c>
       <c r="H12">
-        <v>34.1994417458299</v>
+        <v>98.87899999999999</v>
       </c>
       <c r="I12">
-        <v>0.3071915423129888</v>
+        <v>0.2772413699455032</v>
       </c>
       <c r="J12">
-        <v>0.3071915423129888</v>
+        <v>0.2879097637882357</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.10002533935425</v>
+        <v>8.819868333333334</v>
       </c>
       <c r="N12">
-        <v>5.10002533935425</v>
+        <v>26.459605</v>
       </c>
       <c r="O12">
-        <v>0.0354773795525396</v>
+        <v>0.06009452733181694</v>
       </c>
       <c r="P12">
-        <v>0.0354773795525396</v>
+        <v>0.08592393201160566</v>
       </c>
       <c r="Q12">
-        <v>174.4180194955021</v>
+        <v>290.6999203105556</v>
       </c>
       <c r="R12">
-        <v>174.4180194955021</v>
+        <v>2616.299282795</v>
       </c>
       <c r="S12">
-        <v>0.01089835094196793</v>
+        <v>0.01666068908370041</v>
       </c>
       <c r="T12">
-        <v>0.01089835094196793</v>
+        <v>0.02473833896921781</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.1994417458299</v>
+        <v>32.95966666666666</v>
       </c>
       <c r="H13">
-        <v>34.1994417458299</v>
+        <v>98.87899999999999</v>
       </c>
       <c r="I13">
-        <v>0.3071915423129888</v>
+        <v>0.2772413699455032</v>
       </c>
       <c r="J13">
-        <v>0.3071915423129888</v>
+        <v>0.2879097637882357</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>131.949570727232</v>
+        <v>5.485874</v>
       </c>
       <c r="N13">
-        <v>131.949570727232</v>
+        <v>16.457622</v>
       </c>
       <c r="O13">
-        <v>0.9178826948882181</v>
+        <v>0.03737822295894862</v>
       </c>
       <c r="P13">
-        <v>0.9178826948882181</v>
+        <v>0.05344386636915803</v>
       </c>
       <c r="Q13">
-        <v>4512.601657473233</v>
+        <v>180.8125784153333</v>
       </c>
       <c r="R13">
-        <v>4512.601657473233</v>
+        <v>1627.313205738</v>
       </c>
       <c r="S13">
-        <v>0.2819658007051143</v>
+        <v>0.01036278973926738</v>
       </c>
       <c r="T13">
-        <v>0.2819658007051143</v>
+        <v>0.01538701094227432</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.4987015187923</v>
+        <v>32.95966666666666</v>
       </c>
       <c r="H14">
-        <v>12.4987015187923</v>
+        <v>98.87899999999999</v>
       </c>
       <c r="I14">
-        <v>0.1122677798369522</v>
+        <v>0.2772413699455032</v>
       </c>
       <c r="J14">
-        <v>0.1122677798369522</v>
+        <v>0.2879097637882357</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>6.70468916187764</v>
+        <v>0.06916233333333334</v>
       </c>
       <c r="N14">
-        <v>6.70468916187764</v>
+        <v>0.207487</v>
       </c>
       <c r="O14">
-        <v>0.0466399255592423</v>
+        <v>0.0004712403375823903</v>
       </c>
       <c r="P14">
-        <v>0.0466399255592423</v>
+        <v>0.0006737855263255828</v>
       </c>
       <c r="Q14">
-        <v>83.79990861059034</v>
+        <v>2.279567452555555</v>
       </c>
       <c r="R14">
-        <v>83.79990861059034</v>
+        <v>20.516107073</v>
       </c>
       <c r="S14">
-        <v>0.005236160894296854</v>
+        <v>0.0001306473167649233</v>
       </c>
       <c r="T14">
-        <v>0.005236160894296854</v>
+        <v>0.0001939894317283306</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.4987015187923</v>
+        <v>32.95966666666666</v>
       </c>
       <c r="H15">
-        <v>12.4987015187923</v>
+        <v>98.87899999999999</v>
       </c>
       <c r="I15">
-        <v>0.1122677798369522</v>
+        <v>0.2772413699455032</v>
       </c>
       <c r="J15">
-        <v>0.1122677798369522</v>
+        <v>0.2879097637882357</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>5.10002533935425</v>
+        <v>0.03413666666666667</v>
       </c>
       <c r="N15">
-        <v>5.10002533935425</v>
+        <v>0.10241</v>
       </c>
       <c r="O15">
-        <v>0.0354773795525396</v>
+        <v>0.0002325915501781441</v>
       </c>
       <c r="P15">
-        <v>0.0354773795525396</v>
+        <v>0.0003325624051193711</v>
       </c>
       <c r="Q15">
-        <v>63.74369445486618</v>
+        <v>1.125133154444445</v>
       </c>
       <c r="R15">
-        <v>63.74369445486618</v>
+        <v>10.12619839</v>
       </c>
       <c r="S15">
-        <v>0.003982966636796505</v>
+        <v>6.448400000913691E-05</v>
       </c>
       <c r="T15">
-        <v>0.003982966636796505</v>
+        <v>9.574796350276568E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.4987015187923</v>
+        <v>32.95966666666666</v>
       </c>
       <c r="H16">
-        <v>12.4987015187923</v>
+        <v>98.87899999999999</v>
       </c>
       <c r="I16">
-        <v>0.1122677798369522</v>
+        <v>0.2772413699455032</v>
       </c>
       <c r="J16">
-        <v>0.1122677798369522</v>
+        <v>0.2879097637882357</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>131.949570727232</v>
+        <v>132.35754</v>
       </c>
       <c r="N16">
-        <v>131.949570727232</v>
+        <v>264.71508</v>
       </c>
       <c r="O16">
-        <v>0.9178826948882181</v>
+        <v>0.9018234178214739</v>
       </c>
       <c r="P16">
-        <v>0.9178826948882181</v>
+        <v>0.8596258536877913</v>
       </c>
       <c r="Q16">
-        <v>1649.198300052446</v>
+        <v>4362.46039922</v>
       </c>
       <c r="R16">
-        <v>1649.198300052446</v>
+        <v>26174.76239532</v>
       </c>
       <c r="S16">
-        <v>0.1030486523058588</v>
+        <v>0.2500227598057613</v>
       </c>
       <c r="T16">
-        <v>0.1030486523058588</v>
+        <v>0.2474946764815125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>34.916151</v>
+      </c>
+      <c r="H17">
+        <v>104.748453</v>
+      </c>
+      <c r="I17">
+        <v>0.2936984052163973</v>
+      </c>
+      <c r="J17">
+        <v>0.3050000744385877</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.819868333333334</v>
+      </c>
+      <c r="N17">
+        <v>26.459605</v>
+      </c>
+      <c r="O17">
+        <v>0.06009452733181694</v>
+      </c>
+      <c r="P17">
+        <v>0.08592393201160566</v>
+      </c>
+      <c r="Q17">
+        <v>307.955854526785</v>
+      </c>
+      <c r="R17">
+        <v>2771.602690741065</v>
+      </c>
+      <c r="S17">
+        <v>0.01764966683958783</v>
+      </c>
+      <c r="T17">
+        <v>0.02620680565959587</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>34.916151</v>
+      </c>
+      <c r="H18">
+        <v>104.748453</v>
+      </c>
+      <c r="I18">
+        <v>0.2936984052163973</v>
+      </c>
+      <c r="J18">
+        <v>0.3050000744385877</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.485874</v>
+      </c>
+      <c r="N18">
+        <v>16.457622</v>
+      </c>
+      <c r="O18">
+        <v>0.03737822295894862</v>
+      </c>
+      <c r="P18">
+        <v>0.05344386636915803</v>
+      </c>
+      <c r="Q18">
+        <v>191.545604950974</v>
+      </c>
+      <c r="R18">
+        <v>1723.910444558766</v>
+      </c>
+      <c r="S18">
+        <v>0.01097792447286614</v>
+      </c>
+      <c r="T18">
+        <v>0.01630038322087913</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>34.916151</v>
+      </c>
+      <c r="H19">
+        <v>104.748453</v>
+      </c>
+      <c r="I19">
+        <v>0.2936984052163973</v>
+      </c>
+      <c r="J19">
+        <v>0.3050000744385877</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.06916233333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.207487</v>
+      </c>
+      <c r="O19">
+        <v>0.0004712403375823903</v>
+      </c>
+      <c r="P19">
+        <v>0.0006737855263255828</v>
+      </c>
+      <c r="Q19">
+        <v>2.414882474179</v>
+      </c>
+      <c r="R19">
+        <v>21.733942267611</v>
+      </c>
+      <c r="S19">
+        <v>0.0001384025356215847</v>
+      </c>
+      <c r="T19">
+        <v>0.0002055046356849457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>34.916151</v>
+      </c>
+      <c r="H20">
+        <v>104.748453</v>
+      </c>
+      <c r="I20">
+        <v>0.2936984052163973</v>
+      </c>
+      <c r="J20">
+        <v>0.3050000744385877</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.03413666666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.10241</v>
+      </c>
+      <c r="O20">
+        <v>0.0002325915501781441</v>
+      </c>
+      <c r="P20">
+        <v>0.0003325624051193711</v>
+      </c>
+      <c r="Q20">
+        <v>1.19192100797</v>
+      </c>
+      <c r="R20">
+        <v>10.72728907173</v>
+      </c>
+      <c r="S20">
+        <v>6.831176735413059E-05</v>
+      </c>
+      <c r="T20">
+        <v>0.0001014315583168839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>34.916151</v>
+      </c>
+      <c r="H21">
+        <v>104.748453</v>
+      </c>
+      <c r="I21">
+        <v>0.2936984052163973</v>
+      </c>
+      <c r="J21">
+        <v>0.3050000744385877</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>132.35754</v>
+      </c>
+      <c r="N21">
+        <v>264.71508</v>
+      </c>
+      <c r="O21">
+        <v>0.9018234178214739</v>
+      </c>
+      <c r="P21">
+        <v>0.8596258536877913</v>
+      </c>
+      <c r="Q21">
+        <v>4621.41585262854</v>
+      </c>
+      <c r="R21">
+        <v>27728.49511577124</v>
+      </c>
+      <c r="S21">
+        <v>0.2648640996009676</v>
+      </c>
+      <c r="T21">
+        <v>0.2621859493641108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>13.2156545</v>
+      </c>
+      <c r="H22">
+        <v>26.431309</v>
+      </c>
+      <c r="I22">
+        <v>0.1111639324317536</v>
+      </c>
+      <c r="J22">
+        <v>0.07696105270890552</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.819868333333334</v>
+      </c>
+      <c r="N22">
+        <v>26.459605</v>
+      </c>
+      <c r="O22">
+        <v>0.06009452733181694</v>
+      </c>
+      <c r="P22">
+        <v>0.08592393201160566</v>
+      </c>
+      <c r="Q22">
+        <v>116.5603326288242</v>
+      </c>
+      <c r="R22">
+        <v>699.361995772945</v>
+      </c>
+      <c r="S22">
+        <v>0.006680343975832267</v>
+      </c>
+      <c r="T22">
+        <v>0.006612796260501598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>13.2156545</v>
+      </c>
+      <c r="H23">
+        <v>26.431309</v>
+      </c>
+      <c r="I23">
+        <v>0.1111639324317536</v>
+      </c>
+      <c r="J23">
+        <v>0.07696105270890552</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.485874</v>
+      </c>
+      <c r="N23">
+        <v>16.457622</v>
+      </c>
+      <c r="O23">
+        <v>0.03737822295894862</v>
+      </c>
+      <c r="P23">
+        <v>0.05344386636915803</v>
+      </c>
+      <c r="Q23">
+        <v>72.49941541453299</v>
+      </c>
+      <c r="R23">
+        <v>434.996492487198</v>
+      </c>
+      <c r="S23">
+        <v>0.004155110251427585</v>
+      </c>
+      <c r="T23">
+        <v>0.004113096216604474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>13.2156545</v>
+      </c>
+      <c r="H24">
+        <v>26.431309</v>
+      </c>
+      <c r="I24">
+        <v>0.1111639324317536</v>
+      </c>
+      <c r="J24">
+        <v>0.07696105270890552</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.06916233333333334</v>
+      </c>
+      <c r="N24">
+        <v>0.207487</v>
+      </c>
+      <c r="O24">
+        <v>0.0004712403375823903</v>
+      </c>
+      <c r="P24">
+        <v>0.0006737855263255828</v>
+      </c>
+      <c r="Q24">
+        <v>0.9140255017471667</v>
+      </c>
+      <c r="R24">
+        <v>5.484153010483</v>
+      </c>
+      <c r="S24">
+        <v>5.238492904612558E-05</v>
+      </c>
+      <c r="T24">
+        <v>5.185524340604082E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>13.2156545</v>
+      </c>
+      <c r="H25">
+        <v>26.431309</v>
+      </c>
+      <c r="I25">
+        <v>0.1111639324317536</v>
+      </c>
+      <c r="J25">
+        <v>0.07696105270890552</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.03413666666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.10241</v>
+      </c>
+      <c r="O25">
+        <v>0.0002325915501781441</v>
+      </c>
+      <c r="P25">
+        <v>0.0003325624051193711</v>
+      </c>
+      <c r="Q25">
+        <v>0.4511383924483334</v>
+      </c>
+      <c r="R25">
+        <v>2.70683035469</v>
+      </c>
+      <c r="S25">
+        <v>2.585579136820003E-05</v>
+      </c>
+      <c r="T25">
+        <v>2.559435278939231E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>13.2156545</v>
+      </c>
+      <c r="H26">
+        <v>26.431309</v>
+      </c>
+      <c r="I26">
+        <v>0.1111639324317536</v>
+      </c>
+      <c r="J26">
+        <v>0.07696105270890552</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>132.35754</v>
+      </c>
+      <c r="N26">
+        <v>264.71508</v>
+      </c>
+      <c r="O26">
+        <v>0.9018234178214739</v>
+      </c>
+      <c r="P26">
+        <v>0.8596258536877913</v>
+      </c>
+      <c r="Q26">
+        <v>1749.19151910993</v>
+      </c>
+      <c r="R26">
+        <v>6996.76607643972</v>
+      </c>
+      <c r="S26">
+        <v>0.1002502374840794</v>
+      </c>
+      <c r="T26">
+        <v>0.06615771063560401</v>
       </c>
     </row>
   </sheetData>
